--- a/70000029-cdo_appian-T2PRJ0405368-Alojables-tmp/Alojables/tmp/content/_a-0000eb09-d442-8000-e687-01ef9001ef90_8738079/file.xlsx
+++ b/70000029-cdo_appian-T2PRJ0405368-Alojables-tmp/Alojables/tmp/content/_a-0000eb09-d442-8000-e687-01ef9001ef90_8738079/file.xlsx
@@ -26,7 +26,7 @@
     <numFmt numFmtId="169" formatCode="MMM d, yyyy"/>
     <numFmt numFmtId="170" formatCode="MMM d, yyyy h:mm AM/PM"/>
   </numFmts>
-  <fonts count="57" x14ac:knownFonts="1">
+  <fonts count="147" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +167,501 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -740,7 +1235,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="728">
+  <cellXfs count="2438">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2801,6 +3296,4866 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -3158,7 +8513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3175,11 +8530,11 @@
     <col min="9" max="9" width="44.88671875" customWidth="true"/>
     <col min="10" max="10" width="10.6640625" customWidth="true"/>
     <col min="11" max="11" width="6.88671875" customWidth="true"/>
-    <col min="12" max="13" customWidth="true" width="20.5546875" collapsed="false"/>
+    <col min="12" max="13" customWidth="true" width="20.5546875"/>
     <col min="14" max="14" width="13.6640625" customWidth="true"/>
     <col min="15" max="15" width="5.0" customWidth="true"/>
     <col min="16" max="16" width="3.6640625" customWidth="true"/>
-    <col min="17" max="18" customWidth="true" width="45.6640625" collapsed="false"/>
+    <col min="17" max="18" customWidth="true" width="45.6640625"/>
     <col min="19" max="19" width="13.44140625" customWidth="true" style="3"/>
   </cols>
   <sheetData>
@@ -3280,94 +8635,10 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>FONDOS</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>5888273</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1000399</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>MALO CARUS MARIA TERESA NATIVIDAD</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>25YC</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>CII8</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>ALVAREZ GARCIA CARLOS DAVID</t>
-        </is>
-      </c>
-      <c r="J2" s="710" t="n">
-        <v>42905.0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>CONTACT_AIR_SELECT</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>FONSER1 B1</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>ESTEE</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>1516</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>CAUSA 25.1 GRABACION DE LA OPERACIÃ¿â€œN MAL REALIZADA,NO MENCIONA NUMERO DE CONTRATO Y Falta menciona Disclaimer " Le recuerdo que Usted estÃ¿Â¡ comprando/ vendiendo el fondo XX del cual, estÃ¿Â¡ a su disposiciÃ¿Â³n el prospecto y el documento clave en www.santander.com.mx" -Rechazado por revisor( 250988) 2017-06-20 10:54:09</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>GRAB-78148 09:46</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>'-297</t>
+          <t>No data available due to empty data source, applied filter/selection criteria, or fields visibility.</t>
         </is>
       </c>
     </row>
